--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-datacomponents.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-datacomponents.xlsx
@@ -791,16 +791,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -823,7 +815,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -831,35 +823,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1162,31 +1136,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1203,7 +1177,7 @@
       <c r="D2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F2" t="s">
@@ -1232,7 +1206,7 @@
       <c r="D3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F3" t="s">
@@ -1261,7 +1235,7 @@
       <c r="D4" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>155</v>
       </c>
       <c r="F4" t="s">
@@ -1290,7 +1264,7 @@
       <c r="D5" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F5" t="s">
@@ -1319,7 +1293,7 @@
       <c r="D6" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F6" t="s">
@@ -1348,7 +1322,7 @@
       <c r="D7" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F7" t="s">
@@ -1377,7 +1351,7 @@
       <c r="D8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F8" t="s">
@@ -1406,7 +1380,7 @@
       <c r="D9" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>160</v>
       </c>
       <c r="F9" t="s">
@@ -1435,7 +1409,7 @@
       <c r="D10" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F10" t="s">
@@ -1464,7 +1438,7 @@
       <c r="D11" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F11" t="s">
@@ -1493,7 +1467,7 @@
       <c r="D12" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F12" t="s">
@@ -1522,7 +1496,7 @@
       <c r="D13" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>164</v>
       </c>
       <c r="F13" t="s">
@@ -1551,7 +1525,7 @@
       <c r="D14" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F14" t="s">
@@ -1580,7 +1554,7 @@
       <c r="D15" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F15" t="s">
@@ -1609,7 +1583,7 @@
       <c r="D16" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F16" t="s">
@@ -1638,7 +1612,7 @@
       <c r="D17" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F17" t="s">
@@ -1667,7 +1641,7 @@
       <c r="D18" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>169</v>
       </c>
       <c r="F18" t="s">
@@ -1696,7 +1670,7 @@
       <c r="D19" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F19" t="s">
@@ -1725,7 +1699,7 @@
       <c r="D20" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F20" t="s">
@@ -1754,7 +1728,7 @@
       <c r="D21" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F21" t="s">
@@ -1783,7 +1757,7 @@
       <c r="D22" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F22" t="s">
@@ -1812,7 +1786,7 @@
       <c r="D23" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F23" t="s">
@@ -1841,7 +1815,7 @@
       <c r="D24" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F24" t="s">
@@ -1870,7 +1844,7 @@
       <c r="D25" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F25" t="s">
@@ -1899,7 +1873,7 @@
       <c r="D26" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F26" t="s">
@@ -1928,7 +1902,7 @@
       <c r="D27" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F27" t="s">
@@ -1957,7 +1931,7 @@
       <c r="D28" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F28" t="s">
@@ -1986,7 +1960,7 @@
       <c r="D29" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>180</v>
       </c>
       <c r="F29" t="s">
@@ -2015,7 +1989,7 @@
       <c r="D30" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>181</v>
       </c>
       <c r="F30" t="s">
@@ -2044,7 +2018,7 @@
       <c r="D31" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F31" t="s">
@@ -2073,7 +2047,7 @@
       <c r="D32" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>183</v>
       </c>
       <c r="F32" t="s">
@@ -2102,7 +2076,7 @@
       <c r="D33" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F33" t="s">
@@ -2131,7 +2105,7 @@
       <c r="D34" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>185</v>
       </c>
       <c r="F34" t="s">
@@ -2160,7 +2134,7 @@
       <c r="D35" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>186</v>
       </c>
       <c r="F35" t="s">
@@ -2189,7 +2163,7 @@
       <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F36" t="s">
@@ -2218,7 +2192,7 @@
       <c r="D37" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F37" t="s">
